--- a/進捗ファイル/チームR_基本設計書.xlsx
+++ b/進捗ファイル/チームR_基本設計書.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c1a27bca185ed6c/ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{CE5CB6CA-FBE4-49D6-9C11-04E4652F237C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23C9879A-A902-4595-A9B8-8B40D106F3FA}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="8_{CE5CB6CA-FBE4-49D6-9C11-04E4652F237C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEF891E4-E031-41E1-A666-F10845554B73}"/>
   <bookViews>
-    <workbookView xWindow="10515" yWindow="3855" windowWidth="13455" windowHeight="11385" activeTab="2" xr2:uid="{27B8FE06-DCA6-494F-90A5-6228B63DFF58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{27B8FE06-DCA6-494F-90A5-6228B63DFF58}"/>
   </bookViews>
   <sheets>
-    <sheet name="WBS" sheetId="1" r:id="rId1"/>
-    <sheet name="スケジュール" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="研究目的と方針" sheetId="3" r:id="rId1"/>
+    <sheet name="基本設計" sheetId="4" r:id="rId2"/>
+    <sheet name="WBS" sheetId="1" r:id="rId3"/>
+    <sheet name="スケジュール" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,9 +36,159 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>研究方針</t>
+    <rPh sb="0" eb="4">
+      <t>ケンキュウホウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・本研究では、学生などを対象とする利用者インターフェースの問題点調査等を通じて、問題点がどこにあるのか、どのようにして改善すべきなのかを述べ、実際にシステム設計・UI設計を行い、実装まで展開する予定である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・本学に設置されているポータルサイトが10年以上前のもので、学校と生徒間をつなぐものであるにもかかわらず画面の使いにくさについて指摘されてい
+る。このため、実際、どのような問題があるのかを把握する必要性を感じた。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>研究目的</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調査</t>
+    <rPh sb="0" eb="2">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・既存デザインガイドラインの調査</t>
+    <rPh sb="1" eb="3">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・他大学のポータルサイトの調査</t>
+    <rPh sb="1" eb="4">
+      <t>タダイガク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・デザイン調査</t>
+    <rPh sb="5" eb="7">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・企画・設計
+　→調査結果から、こういう改善案の方がいいのではといったアイディアを出し合い、仮の改善案をあらわす。</t>
+    <rPh sb="1" eb="3">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>チョウサケッカ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>カイゼンアン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>カイゼンアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装（ウォーターフォールモデル型）</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・実装
+　→CSSフレームワークとVSCなどを用いて改善案ポータルサイトを作成する。</t>
+    <rPh sb="1" eb="3">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>カイゼンアン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装例</t>
+    <rPh sb="0" eb="3">
+      <t>ジッソウレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・視覚的に情報を取り込みやすくする工夫</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・紙とインクの考え方</t>
+    <rPh sb="1" eb="2">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紙</t>
+    <rPh sb="0" eb="1">
+      <t>カミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +203,27 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="HG丸ｺﾞｼｯｸM-PRO"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="HG丸ｺﾞｼｯｸM-PRO"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF666666"/>
+      <name val="HG丸ｺﾞｼｯｸM-PRO"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -76,8 +248,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -99,6 +286,236 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1" descr="Googleが提唱する「マテリアルデザイン」って知ってる？？ | AROCHAN">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F66B0A3-9B40-4150-9B5B-3F4DB8C9DBB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="4781550"/>
+          <a:ext cx="7620000" cy="3238500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2" descr="マテリアルデザイン">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61AE56D0-4F7C-4A0D-BE30-693512FF0884}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="733425" y="9039225"/>
+          <a:ext cx="6076950" cy="4305300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>218082</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{852F2F8C-336B-4E3C-BBF1-1ABD1E521760}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752476" y="14325600"/>
+          <a:ext cx="7391399" cy="3599457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>328075</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E40E7DD9-9BFD-4598-B333-F52692DB1323}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="18135600"/>
+          <a:ext cx="11929525" cy="5772150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -307,12 +724,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2723823" cy="392415"/>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3647152" cy="392415"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
@@ -326,8 +743,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3714750" y="2076450"/>
-          <a:ext cx="2723823" cy="392415"/>
+          <a:off x="3248025" y="2095500"/>
+          <a:ext cx="3647152" cy="392415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -358,7 +775,7 @@
               <a:latin typeface="HG丸ｺﾞｼｯｸM-PRO" panose="020F0600000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="HG丸ｺﾞｼｯｸM-PRO" panose="020F0600000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>デザイン・ガイドライン</a:t>
+            <a:t>既存デザイン・ガイドライン調査</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -439,7 +856,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3425297" cy="392415"/>
     <xdr:sp macro="" textlink="">
@@ -455,7 +872,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3362325" y="3533775"/>
+          <a:off x="3362325" y="3562350"/>
           <a:ext cx="3425297" cy="392415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1326,12 +1743,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2425408" cy="392415"/>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="825739" cy="392415"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="24" name="テキスト ボックス 23">
@@ -1345,8 +1762,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22707600" y="2047875"/>
-          <a:ext cx="2425408" cy="392415"/>
+          <a:off x="23355300" y="2038350"/>
+          <a:ext cx="825739" cy="392415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1377,7 +1794,7 @@
               <a:latin typeface="HG丸ｺﾞｼｯｸM-PRO" panose="020F0600000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="HG丸ｺﾞｼｯｸM-PRO" panose="020F0600000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>Visual Studio Code</a:t>
+            <a:t>Atom</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
             <a:latin typeface="HG丸ｺﾞｼｯｸM-PRO" panose="020F0600000000000000" pitchFamily="50" charset="-128"/>
@@ -1504,15 +1921,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>274374</xdr:colOff>
+      <xdr:colOff>271001</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>87615</xdr:rowOff>
+      <xdr:rowOff>106665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>276062</xdr:colOff>
+      <xdr:colOff>274374</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1529,9 +1946,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5074974" y="2468865"/>
-          <a:ext cx="1688" cy="1064910"/>
+        <a:xfrm>
+          <a:off x="5071601" y="2487915"/>
+          <a:ext cx="3373" cy="1074435"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1557,15 +1974,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>276063</xdr:colOff>
+      <xdr:colOff>271002</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>173340</xdr:rowOff>
+      <xdr:rowOff>173339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>393190</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1583,8 +2000,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="8550884" y="-2110256"/>
-          <a:ext cx="712485" cy="7660927"/>
+          <a:off x="8538828" y="-2103262"/>
+          <a:ext cx="731535" cy="7665988"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -1612,13 +2029,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>232988</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>87615</xdr:rowOff>
+      <xdr:rowOff>106664</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>276063</xdr:colOff>
+      <xdr:colOff>271002</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>209549</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1636,8 +2053,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="3146308" y="1612945"/>
-          <a:ext cx="1074435" cy="2786275"/>
+          <a:off x="3153302" y="1625000"/>
+          <a:ext cx="1055385" cy="2781214"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -1663,13 +2080,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>276061</xdr:colOff>
+      <xdr:colOff>271001</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>87615</xdr:rowOff>
+      <xdr:rowOff>106665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>414350</xdr:colOff>
+      <xdr:colOff>414351</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
@@ -1689,8 +2106,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5975426" y="1570100"/>
-          <a:ext cx="1083960" cy="2881489"/>
+          <a:off x="5982421" y="1577095"/>
+          <a:ext cx="1064910" cy="2886550"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2199,15 +2616,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>603104</xdr:colOff>
+      <xdr:colOff>450971</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>154290</xdr:rowOff>
+      <xdr:rowOff>154289</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>669414</xdr:colOff>
+      <xdr:colOff>669415</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2225,8 +2642,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="24287779" y="977440"/>
-          <a:ext cx="702960" cy="1437910"/>
+          <a:off x="24216475" y="896610"/>
+          <a:ext cx="693435" cy="1590044"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -3059,7 +3476,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3304,10 +3721,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1569660" cy="392415"/>
     <xdr:sp macro="" textlink="">
@@ -3323,7 +3740,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1419225" y="1114425"/>
+          <a:off x="4533900" y="1095375"/>
           <a:ext cx="1569660" cy="392415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3358,6 +3775,10 @@
             </a:rPr>
             <a:t>デザイン設計</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:latin typeface="HG丸ｺﾞｼｯｸM-PRO" panose="020F0600000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="HG丸ｺﾞｼｯｸM-PRO" panose="020F0600000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3472,11 +3893,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1331647" cy="392415"/>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1905137" cy="392415"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="テキスト ボックス 8">
@@ -3490,8 +3911,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4772025" y="323850"/>
-          <a:ext cx="1331647" cy="392415"/>
+          <a:off x="4248150" y="285750"/>
+          <a:ext cx="1905137" cy="392415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3544,6 +3965,20 @@
               <a:latin typeface="HG丸ｺﾞｼｯｸM-PRO" panose="020F0600000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="HG丸ｺﾞｼｯｸM-PRO" panose="020F0600000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:latin typeface="HG丸ｺﾞｼｯｸM-PRO" panose="020F0600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HG丸ｺﾞｼｯｸM-PRO" panose="020F0600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="HG丸ｺﾞｼｯｸM-PRO" panose="020F0600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HG丸ｺﾞｼｯｸM-PRO" panose="020F0600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
             <a:t>月</a:t>
           </a:r>
         </a:p>
@@ -3553,10 +3988,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2415533" cy="392415"/>
     <xdr:sp macro="" textlink="">
@@ -3572,7 +4007,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3971925" y="1123950"/>
+          <a:off x="1076325" y="1047750"/>
           <a:ext cx="2415533" cy="392415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3735,11 +4170,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1160318" cy="392415"/>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="586827" cy="392415"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="テキスト ボックス 12">
@@ -3753,8 +4188,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7572375" y="314325"/>
-          <a:ext cx="1160318" cy="392415"/>
+          <a:off x="7962900" y="285750"/>
+          <a:ext cx="586827" cy="392415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3781,20 +4216,6 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-              <a:latin typeface="HG丸ｺﾞｼｯｸM-PRO" panose="020F0600000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HG丸ｺﾞｼｯｸM-PRO" panose="020F0600000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>12</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-              <a:latin typeface="HG丸ｺﾞｼｯｸM-PRO" panose="020F0600000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HG丸ｺﾞｼｯｸM-PRO" panose="020F0600000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
               <a:latin typeface="HG丸ｺﾞｼｯｸM-PRO" panose="020F0600000000000000" pitchFamily="50" charset="-128"/>
@@ -4174,11 +4595,288 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3CD4F3-0886-432E-8584-83DA08F955B9}">
+  <dimension ref="B2:T11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:20" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="8" spans="2:20" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:T5"/>
+    <mergeCell ref="B10:T11"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FF1A68-5886-44FB-AC86-59F63E447AB5}">
+  <dimension ref="B2:T57"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="T76" sqref="T76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:20" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+    </row>
+    <row r="18" spans="2:14" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="24" x14ac:dyDescent="0.4">
+      <c r="N20" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="24" x14ac:dyDescent="0.4">
+      <c r="N23" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="B35" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="B57" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B11:T12"/>
+    <mergeCell ref="B14:T15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46256C2-DCA4-4207-9472-F0CA469C6F05}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7"/>
+    <sheetView showGridLines="0" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4190,11 +4888,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4D21C1-1376-4FDB-B237-75D369F9FCB7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -4204,17 +4902,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3CD4F3-0886-432E-8584-83DA08F955B9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>